--- a/test/purchase.xlsx
+++ b/test/purchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhiraj Das\Documents\DMSBackend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A092DFE-6E74-40DD-AC61-4B0952CE3434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE123C51-E8D4-4098-AA98-204356750357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>branch</t>
   </si>
@@ -46,27 +46,15 @@
     <t>101 Andheri East, Mumbai</t>
   </si>
   <si>
-    <t>77 Shopping Street, T. Nagar</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Maharashtra</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
-    <t>mumbai</t>
-  </si>
-  <si>
     <t xml:space="preserve">month </t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
     <t>PAN2345678</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>contact_no</t>
   </si>
   <si>
-    <t>GST234567</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -187,37 +169,16 @@
     <t>gst_rate2</t>
   </si>
   <si>
-    <t>Andheri</t>
-  </si>
-  <si>
-    <t>Smita</t>
-  </si>
-  <si>
-    <t>GST222668</t>
-  </si>
-  <si>
-    <t>PAN222222</t>
-  </si>
-  <si>
-    <t>457 DLH Park, Town</t>
-  </si>
-  <si>
-    <t>smita@example.com</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>Wooden</t>
-  </si>
-  <si>
-    <t>B2B</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>Malad</t>
+    <t>mumbaii</t>
+  </si>
+  <si>
+    <t>GST234898</t>
+  </si>
+  <si>
+    <t>Janbh</t>
+  </si>
+  <si>
+    <t>zxcvbnm</t>
   </si>
 </sst>
 </file>
@@ -627,7 +588,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,117 +623,117 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="AJ1" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>9876543210</v>
+        <v>9833968902</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4">
-        <v>43961</v>
+        <v>44900</v>
       </c>
       <c r="I2">
         <v>456123</v>
@@ -781,22 +742,22 @@
         <v>43961</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -807,17 +768,17 @@
       <c r="S2" t="b">
         <v>1</v>
       </c>
-      <c r="T2" t="s">
-        <v>31</v>
+      <c r="T2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="U2">
         <v>9876543555</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -832,19 +793,19 @@
         <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AD2">
         <v>6</v>
       </c>
       <c r="AE2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AG2">
         <v>2</v>
@@ -860,119 +821,20 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9833968902</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43962</v>
-      </c>
-      <c r="I3">
-        <v>456123</v>
-      </c>
-      <c r="J3" s="4">
-        <v>43962</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3">
-        <v>8765432109</v>
-      </c>
-      <c r="V3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3">
-        <v>12</v>
-      </c>
-      <c r="Y3">
-        <v>120</v>
-      </c>
-      <c r="Z3">
-        <v>500</v>
-      </c>
-      <c r="AA3">
-        <v>18</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG3">
-        <v>2</v>
-      </c>
-      <c r="AH3">
-        <v>200</v>
-      </c>
-      <c r="AI3">
-        <v>1500</v>
-      </c>
-      <c r="AJ3">
-        <v>14</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="T3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="T3" r:id="rId1" xr:uid="{ECB007C4-D33B-47FB-BA65-B43785B65CF8}"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{DA45605E-6F5F-4FE9-B0C1-A05120CB5AB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
